--- a/biology/Zoologie/Aulia_roux/Aulia_roux.xlsx
+++ b/biology/Zoologie/Aulia_roux/Aulia_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhytipterna holerythra
-L'Aulia roux (Rhytipterna holerythra), aussi appelé Tyran plaintif, est une espèce de passereaux de la famille des Tyrannidae (Tyrannidés en français)[1].
+L'Aulia roux (Rhytipterna holerythra), aussi appelé Tyran plaintif, est une espèce de passereaux de la famille des Tyrannidae (Tyrannidés en français).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aulia roux a le dessus qui va du cannelle-marron au roux. Les primaires et les secondaires sont brun sombre avec les plumes extérieures brun-rouge. Le dessous et le dessous des ailes est fauve-ocre, sombre sur la poitrine et pâle sur la gorge et l'abdomen. Il mesure entre 18 et 19 cm de longueur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aulia roux a le dessus qui va du cannelle-marron au roux. Les primaires et les secondaires sont brun sombre avec les plumes extérieures brun-rouge. Le dessous et le dessous des ailes est fauve-ocre, sombre sur la poitrine et pâle sur la gorge et l'abdomen. Il mesure entre 18 et 19 cm de longueur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aulia roux se rencontre au Belize (à l'exception du nord), au nord-ouest de la Colombie, au Costa Rica, dans une petite partie du nord-ouest de l'Equateur, au nord du Guatemala, au nord-est du Honduras, au Mexique (à l'ouest du Veracruz, à l'est d'Oaxaca, au nord du Chiapas, au sud de Tabasco et au sud de la péninsule du Yucatan), au Nicaragua et au Panama[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aulia roux se rencontre au Belize (à l'exception du nord), au nord-ouest de la Colombie, au Costa Rica, dans une petite partie du nord-ouest de l'Equateur, au nord du Guatemala, au nord-est du Honduras, au Mexique (à l'ouest du Veracruz, à l'est d'Oaxaca, au nord du Chiapas, au sud de Tabasco et au sud de la péninsule du Yucatan), au Nicaragua et au Panama.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fréquente les forêts humides de plaine et de contrefort, les bords des forêts ainsi que celles partiellement dégagées[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fréquente les forêts humides de plaine et de contrefort, les bords des forêts ainsi que celles partiellement dégagées.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aulia roux a un régime omnivore (insectes de toutes sortes, baies et graines)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aulia roux a un régime omnivore (insectes de toutes sortes, baies et graines).
 </t>
         </is>
       </c>
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,11 +684,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Rhytipterna holerythra holerythra (Sclater, PL &amp; Salvin, 1860) : des plaines du sud-est du Mexique (État de Veracruz) au nord de la Colombie ;
-Rhytipterna holerythra rosenbergi (Hartert, 1905) : de l'ouest de la Colombie (sud du département de Chocó et département de Nariño) au nord-ouest de l'Équateur[1].</t>
+Rhytipterna holerythra rosenbergi (Hartert, 1905) : de l'ouest de la Colombie (sud du département de Chocó et département de Nariño) au nord-ouest de l'Équateur.</t>
         </is>
       </c>
     </row>
